--- a/site_css_xpath.xlsx
+++ b/site_css_xpath.xlsx
@@ -10,14 +10,14 @@
     <sheet name="0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$1:$D$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$1:$E$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="162">
   <si>
     <t>GROUP</t>
   </si>
@@ -157,9 +157,6 @@
     <t>dreli.by</t>
   </si>
   <si>
-    <t>bigi.by</t>
-  </si>
-  <si>
     <t>grandinstrument.by</t>
   </si>
   <si>
@@ -431,6 +428,81 @@
   </si>
   <si>
     <t>//*[contains(concat( " ", @class, " " ), concat( " ", "b_cost", " " ))]</t>
+  </si>
+  <si>
+    <t>CSSNAME</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>.content__header</t>
+  </si>
+  <si>
+    <t>.page-title</t>
+  </si>
+  <si>
+    <t>.tovarhead2</t>
+  </si>
+  <si>
+    <t>.tovarhead_item td:nth-child(1)</t>
+  </si>
+  <si>
+    <t>.ntitle</t>
+  </si>
+  <si>
+    <t>.ItemTitle</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>.headtext</t>
+  </si>
+  <si>
+    <t>.item_name_write</t>
+  </si>
+  <si>
+    <t>#realcont h1</t>
+  </si>
+  <si>
+    <t>.itemPage</t>
+  </si>
+  <si>
+    <t>#title</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>.tovarhead</t>
+  </si>
+  <si>
+    <t>.page-title .title</t>
+  </si>
+  <si>
+    <t>#product-details h2</t>
+  </si>
+  <si>
+    <t>.tovarhead_item &gt; table td:nth-child(1)</t>
+  </si>
+  <si>
+    <t>.center .hdbl_text</t>
+  </si>
+  <si>
+    <t>#page-title</t>
+  </si>
+  <si>
+    <t>.b-product__name</t>
+  </si>
+  <si>
+    <t>.cc .boxleft</t>
+  </si>
+  <si>
+    <t>.item_name</t>
   </si>
 </sst>
 </file>
@@ -530,7 +602,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23"/>
@@ -538,6 +610,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="39"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name=" 1" xfId="2"/>
@@ -871,10 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,9 +961,10 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,27 +972,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -921,13 +1006,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -935,27 +1023,33 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,13 +1057,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -977,13 +1074,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -991,13 +1091,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1005,13 +1108,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1019,13 +1125,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1033,13 +1142,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1047,13 +1159,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,13 +1176,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1075,13 +1193,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1089,27 +1210,33 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,13 +1244,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1131,13 +1261,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1145,13 +1278,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,13 +1295,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1173,13 +1312,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,13 +1329,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,13 +1346,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,13 +1363,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1229,13 +1380,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1243,27 +1397,33 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1271,13 +1431,16 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1285,13 +1448,16 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1299,13 +1465,16 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1313,13 +1482,16 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1327,13 +1499,16 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1341,13 +1516,16 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,13 +1533,16 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1369,27 +1550,33 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1397,13 +1584,16 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1411,27 +1601,33 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>64</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1439,13 +1635,16 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -1453,13 +1652,16 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1467,13 +1669,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1481,13 +1686,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1495,13 +1703,16 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -1509,13 +1720,16 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -1523,13 +1737,16 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -1537,13 +1754,16 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -1551,13 +1771,16 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
@@ -1565,27 +1788,33 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
@@ -1593,13 +1822,16 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
@@ -1607,13 +1839,16 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1621,13 +1856,16 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -1635,13 +1873,16 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -1649,13 +1890,16 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
@@ -1663,13 +1907,16 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>40</v>
       </c>
@@ -1677,13 +1924,16 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -1691,13 +1941,16 @@
         <v>22</v>
       </c>
       <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
@@ -1705,13 +1958,16 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>40</v>
       </c>
@@ -1719,27 +1975,33 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -1747,13 +2009,16 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
@@ -1761,13 +2026,16 @@
         <v>26</v>
       </c>
       <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
@@ -1775,13 +2043,16 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>40</v>
       </c>
@@ -1789,13 +2060,16 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>40</v>
       </c>
@@ -1803,13 +2077,16 @@
         <v>29</v>
       </c>
       <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
@@ -1817,13 +2094,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>40</v>
       </c>
@@ -1831,13 +2111,16 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>40</v>
       </c>
@@ -1845,27 +2128,33 @@
         <v>32</v>
       </c>
       <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
         <v>55</v>
       </c>
-      <c r="C70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -1873,13 +2162,16 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -1887,13 +2179,16 @@
         <v>35</v>
       </c>
       <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -1901,13 +2196,16 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -1915,13 +2213,16 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -1929,13 +2230,16 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -1943,27 +2247,33 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
@@ -1971,13 +2281,16 @@
         <v>36</v>
       </c>
       <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
@@ -1985,13 +2298,16 @@
         <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>33</v>
       </c>
@@ -1999,27 +2315,33 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" t="s">
         <v>64</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>33</v>
       </c>
@@ -2027,13 +2349,16 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2041,13 +2366,16 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>33</v>
       </c>
@@ -2055,13 +2383,16 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>33</v>
       </c>
@@ -2069,13 +2400,16 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
@@ -2083,13 +2417,16 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>33</v>
       </c>
@@ -2097,13 +2434,16 @@
         <v>17</v>
       </c>
       <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>33</v>
       </c>
@@ -2111,13 +2451,16 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>33</v>
       </c>
@@ -2125,13 +2468,16 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>33</v>
       </c>
@@ -2139,13 +2485,16 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D90" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>33</v>
       </c>
@@ -2153,13 +2502,16 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>33</v>
       </c>
@@ -2167,13 +2519,16 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>33</v>
       </c>
@@ -2181,13 +2536,16 @@
         <v>21</v>
       </c>
       <c r="C93" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>33</v>
       </c>
@@ -2195,13 +2553,16 @@
         <v>22</v>
       </c>
       <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>33</v>
       </c>
@@ -2209,13 +2570,16 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>33</v>
       </c>
@@ -2223,27 +2587,33 @@
         <v>24</v>
       </c>
       <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>33</v>
       </c>
@@ -2251,13 +2621,16 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>33</v>
       </c>
@@ -2265,13 +2638,16 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>33</v>
       </c>
@@ -2279,13 +2655,16 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>33</v>
       </c>
@@ -2293,13 +2672,16 @@
         <v>31</v>
       </c>
       <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
@@ -2307,13 +2689,16 @@
         <v>32</v>
       </c>
       <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>33</v>
       </c>
@@ -2321,321 +2706,340 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" t="s">
-        <v>56</v>
-      </c>
-      <c r="D107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D107" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
-      </c>
-      <c r="D112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
-      </c>
-      <c r="D115" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="D119" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>67</v>
-      </c>
-      <c r="D123" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" t="s">
-        <v>136</v>
-      </c>
-      <c r="D124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D125" t="s">
-        <v>84</v>
+      <c r="E122" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>